--- a/upload/import_data/import_data.xlsx
+++ b/upload/import_data/import_data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8055"/>
@@ -9,9 +9,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +19,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+  <si>
+    <t>code</t>
+  </si>
   <si>
     <t>email</t>
   </si>
@@ -45,20 +48,29 @@
     <t>amount</t>
   </si>
   <si>
-    <t>code_customer</t>
-  </si>
-  <si>
-    <t>mail@mail.com</t>
-  </si>
-  <si>
-    <t>+7 days</t>
+    <t>dwiyanto@datakantor.com</t>
+  </si>
+  <si>
+    <t>dwiyantor4chm4d@gmail.com</t>
+  </si>
+  <si>
+    <t>W1</t>
+  </si>
+  <si>
+    <t>INV/ALIN/001</t>
+  </si>
+  <si>
+    <t>INV/SAMPIT/003</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,7 +111,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -380,264 +392,109 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2">
-        <v>100012</v>
+        <v>100018</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="D2">
-        <v>84544884</v>
+        <v>8115408040</v>
       </c>
       <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2">
+        <v>43658</v>
+      </c>
+      <c r="H2" s="2">
+        <v>43811</v>
+      </c>
+      <c r="I2">
+        <v>345000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
+        <v>100004</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2">
-        <v>235366363</v>
-      </c>
-      <c r="G2" s="2">
-        <v>43818</v>
-      </c>
-      <c r="H2" s="2">
-        <v>43832</v>
-      </c>
-      <c r="I2">
-        <v>123000000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>100013</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="D3">
-        <v>84544884</v>
+        <v>8115408040</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3">
-        <v>3454535534</v>
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
       </c>
       <c r="G3" s="2">
-        <v>43819</v>
+        <v>43658</v>
       </c>
       <c r="H3" s="2">
-        <v>43833</v>
+        <v>43811</v>
       </c>
       <c r="I3">
-        <v>123000000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>100014</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4">
-        <v>84544884</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4">
-        <v>6673704705</v>
-      </c>
-      <c r="G4" s="2">
-        <v>43820</v>
-      </c>
-      <c r="H4" s="2">
-        <v>43834</v>
-      </c>
-      <c r="I4">
-        <v>123000000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>100015</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5">
-        <v>84544884</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5">
-        <v>9892873876</v>
-      </c>
-      <c r="G5" s="2">
-        <v>43821</v>
-      </c>
-      <c r="H5" s="2">
-        <v>43835</v>
-      </c>
-      <c r="I5">
-        <v>123000000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>100016</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6">
-        <v>84544884</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6">
-        <v>13112043047</v>
-      </c>
-      <c r="G6" s="2">
-        <v>43822</v>
-      </c>
-      <c r="H6" s="2">
-        <v>43836</v>
-      </c>
-      <c r="I6">
-        <v>123000000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>100017</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7">
-        <v>84544884</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7">
-        <v>16331212218</v>
-      </c>
-      <c r="G7" s="2">
-        <v>43823</v>
-      </c>
-      <c r="H7" s="2">
-        <v>43837</v>
-      </c>
-      <c r="I7">
-        <v>123000000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>100018</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8">
-        <v>84544884</v>
-      </c>
-      <c r="E8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8">
-        <v>19550381389</v>
-      </c>
-      <c r="G8" s="2">
-        <v>43824</v>
-      </c>
-      <c r="H8" s="2">
-        <v>43838</v>
-      </c>
-      <c r="I8">
-        <v>123000000</v>
+        <v>678000</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3:B8" r:id="rId2" display="mail@mail.com"/>
-    <hyperlink ref="C2" r:id="rId3"/>
-    <hyperlink ref="C3:C8" r:id="rId4" display="mail@mail.com"/>
+    <hyperlink ref="B3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="2833" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/upload/import_data/import_data.xlsx
+++ b/upload/import_data/import_data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>code</t>
   </si>
@@ -60,7 +60,7 @@
     <t>INV/ALIN/001</t>
   </si>
   <si>
-    <t>INV/SAMPIT/003</t>
+    <t>085273171136</t>
   </si>
 </sst>
 </file>
@@ -68,7 +68,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -108,10 +108,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -385,7 +386,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -396,12 +397,12 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
     <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -445,8 +446,8 @@
       <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="D2">
-        <v>8115408040</v>
+      <c r="D2" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
@@ -455,46 +456,20 @@
         <v>12</v>
       </c>
       <c r="G2" s="2">
-        <v>43658</v>
-      </c>
-      <c r="H2" s="2">
         <v>43811</v>
       </c>
+      <c r="H2" s="2"/>
       <c r="I2">
-        <v>345000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3">
-        <v>100004</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3">
-        <v>8115408040</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="2">
-        <v>43658</v>
-      </c>
-      <c r="H3" s="2">
-        <v>43811</v>
-      </c>
-      <c r="I3">
-        <v>678000</v>
-      </c>
+      <c r="B3" s="1"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>